--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_5_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_5_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.16000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005149871147538621</v>
+        <v>0.01042232879617899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05453776809134615</v>
+        <v>0.02365367902395644</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.951840435910047</v>
+        <v>4.946449009628239</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.0142300506527206, 8.889450821167374]</t>
+          <t>[0.8051117765730673, 9.08778624268341]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01393074428979779</v>
+        <v>0.01944018520524526</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0141572994943826</v>
+        <v>0.01944018520524526</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.050368778919465</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.8680005005744658, -1.2327370572644636]</t>
+          <t>[-2.956053147521927, -0.9434212172942322]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.474737881590471e-06</v>
+        <v>0.0001725167627542046</v>
       </c>
       <c r="R2" t="n">
-        <v>1.474737881590471e-06</v>
+        <v>0.0001725167627542046</v>
       </c>
       <c r="S2" t="n">
-        <v>13.26519772671682</v>
+        <v>15.29081846902388</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.187000377061711, 15.34339507637193]</t>
+          <t>[13.057168192999747, 17.52446874504801]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.481221221221425</v>
+        <v>7.80740740740756</v>
       </c>
       <c r="X2" t="n">
-        <v>5.099139139139263</v>
+        <v>3.777777777777852</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.86330330330359</v>
+        <v>11.83703703703727</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.61000000000041</v>
+        <v>25.03000000000047</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01359882381239752</v>
+        <v>0.0001199579243174043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05453776809134615</v>
+        <v>0.001299863071920389</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.012264207396121</v>
+        <v>5.706677134143157</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.8129024341582305, 7.211625980634011]</t>
+          <t>[2.1710696418498188, 9.242284626436495]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0141572994943826</v>
+        <v>0.001651620114569541</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0141572994943826</v>
+        <v>0.003303240229139082</v>
       </c>
       <c r="O3" t="n">
-        <v>3.08813211794312</v>
+        <v>-2.025210879791619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 4.169921780440506]</t>
+          <t>[-2.6793162571156195, -1.3711055024676178]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.571980638523598e-08</v>
+        <v>3.559691652554875e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>9.143961277047197e-08</v>
+        <v>7.11938330510975e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>13.90339131923405</v>
+        <v>13.19979006316723</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.99549619368425, 15.811286444783843]</t>
+          <t>[11.349279397261874, 15.050300729072589]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.5143943943946</v>
+        <v>8.067727727727881</v>
       </c>
       <c r="X3" t="n">
-        <v>8.277237237237372</v>
+        <v>5.462002002002107</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.75155155155183</v>
+        <v>10.67345345345366</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_5_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_5_sawtooth_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.16000000000049</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01042232879617899</v>
+        <v>0.008121444092834662</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02365367902395644</v>
+        <v>0.02436133519777564</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.946449009628239</v>
+        <v>4.822953886395227</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.8051117765730673, 9.08778624268341]</t>
+          <t>[0.6963148042044107, 8.949592968586044]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01944018520524526</v>
+        <v>0.02217785794585114</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01944018520524526</v>
+        <v>0.02217785794585114</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.94973718240808</v>
+        <v>-2.301947770197927</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.956053147521927, -0.9434212172942322]</t>
+          <t>[-3.031526844905466, -1.572368695490387]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001725167627542046</v>
+        <v>2.281319355645905e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001725167627542046</v>
+        <v>4.562638711291811e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>15.29081846902388</v>
+        <v>14.00618112341197</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[13.057168192999747, 17.52446874504801]</t>
+          <t>[11.89914661641761, 16.113215630406334]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.80740740740756</v>
+        <v>9.16648648648666</v>
       </c>
       <c r="X2" t="n">
-        <v>3.777777777777852</v>
+        <v>6.26126126126138</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.83703703703727</v>
+        <v>12.07171171171194</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.03000000000047</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001199579243174043</v>
+        <v>0.003439809926152892</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001299863071920389</v>
+        <v>0.02436133519777564</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.706677134143157</v>
+        <v>4.7439059891449</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1710696418498188, 9.242284626436495]</t>
+          <t>[1.5549304856121076, 7.9328814926776925]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001651620114569541</v>
+        <v>0.003685968544273388</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003303240229139082</v>
+        <v>0.007371937088546776</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.025210879791619</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.3711055024676178]</t>
+          <t>[0.6352369529781159, 2.446605690183042]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.559691652554875e-09</v>
+        <v>0.0009206289145233804</v>
       </c>
       <c r="R3" t="n">
-        <v>7.11938330510975e-09</v>
+        <v>0.0009206289145233804</v>
       </c>
       <c r="S3" t="n">
-        <v>13.19979006316723</v>
+        <v>12.9288947998123</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.349279397261874, 15.050300729072589]</t>
+          <t>[10.996080181926844, 14.861709417697758]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.067727727727881</v>
+        <v>17.98580580580602</v>
       </c>
       <c r="X3" t="n">
-        <v>5.462002002002107</v>
+        <v>14.55085085085103</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.67345345345366</v>
+        <v>21.42076076076102</v>
       </c>
     </row>
   </sheetData>
